--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf11</t>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.38514620599182</v>
+        <v>1.690534333333333</v>
       </c>
       <c r="H2">
-        <v>1.38514620599182</v>
+        <v>5.071603</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9339531815638826</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9339531815638826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.74926689937051</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N2">
-        <v>3.74926689937051</v>
+        <v>11.329724</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9855052394405499</v>
       </c>
       <c r="Q2">
-        <v>5.193282820913777</v>
+        <v>6.384429136396887</v>
       </c>
       <c r="R2">
-        <v>5.193282820913777</v>
+        <v>57.45986222757199</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9204157538233775</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9204157538233775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.690534333333333</v>
+      </c>
+      <c r="H3">
+        <v>5.071603</v>
+      </c>
+      <c r="I3">
+        <v>0.9339531815638826</v>
+      </c>
+      <c r="J3">
+        <v>0.9339531815638826</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.166637</v>
+      </c>
+      <c r="O3">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P3">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q3">
+        <v>0.09390185656788888</v>
+      </c>
+      <c r="R3">
+        <v>0.845116709111</v>
+      </c>
+      <c r="S3">
+        <v>0.01353742774050508</v>
+      </c>
+      <c r="T3">
+        <v>0.01353742774050508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.014756</v>
+      </c>
+      <c r="H4">
+        <v>0.044268</v>
+      </c>
+      <c r="I4">
+        <v>0.008152104855500313</v>
+      </c>
+      <c r="J4">
+        <v>0.008152104855500315</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N4">
+        <v>11.329724</v>
+      </c>
+      <c r="O4">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="P4">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="Q4">
+        <v>0.05572713578133333</v>
+      </c>
+      <c r="R4">
+        <v>0.501544222032</v>
+      </c>
+      <c r="S4">
+        <v>0.008033942047564305</v>
+      </c>
+      <c r="T4">
+        <v>0.008033942047564307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.014756</v>
+      </c>
+      <c r="H5">
+        <v>0.044268</v>
+      </c>
+      <c r="I5">
+        <v>0.008152104855500313</v>
+      </c>
+      <c r="J5">
+        <v>0.008152104855500315</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.166637</v>
+      </c>
+      <c r="O5">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P5">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q5">
+        <v>0.0008196318573333334</v>
+      </c>
+      <c r="R5">
+        <v>0.007376686716000001</v>
+      </c>
+      <c r="S5">
+        <v>0.0001181628079360074</v>
+      </c>
+      <c r="T5">
+        <v>0.0001181628079360074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1047943333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.314383</v>
+      </c>
+      <c r="I6">
+        <v>0.05789471358061704</v>
+      </c>
+      <c r="J6">
+        <v>0.05789471358061705</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N6">
+        <v>11.329724</v>
+      </c>
+      <c r="O6">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="P6">
+        <v>0.9855052394405499</v>
+      </c>
+      <c r="Q6">
+        <v>0.3957636244768889</v>
+      </c>
+      <c r="R6">
+        <v>3.561872620292</v>
+      </c>
+      <c r="S6">
+        <v>0.05705554356960806</v>
+      </c>
+      <c r="T6">
+        <v>0.05705554356960806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1047943333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.314383</v>
+      </c>
+      <c r="I7">
+        <v>0.05789471358061704</v>
+      </c>
+      <c r="J7">
+        <v>0.05789471358061705</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05554566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.166637</v>
+      </c>
+      <c r="O7">
+        <v>0.01449476055945007</v>
+      </c>
+      <c r="P7">
+        <v>0.01449476055945008</v>
+      </c>
+      <c r="Q7">
+        <v>0.005820871107888889</v>
+      </c>
+      <c r="R7">
+        <v>0.05238783997100001</v>
+      </c>
+      <c r="S7">
+        <v>0.0008391700110089865</v>
+      </c>
+      <c r="T7">
+        <v>0.0008391700110089867</v>
       </c>
     </row>
   </sheetData>
